--- a/biology/Zoologie/Archaeaspis/Archaeaspis.xlsx
+++ b/biology/Zoologie/Archaeaspis/Archaeaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Archaeaspis est un genre fossile de trilobites de la famille des Archaeaspididae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database en 2023[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023 :
 Archaeaspis hupei Repina, 1965 espèce type
 Archaeaspis macropleuron Lieberman, 2002
 Archaeaspis nelsoni Lieberman, 2002</t>
@@ -544,13 +558,85 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Archaeaspis ?Repina, 1965[1].
-Espèce type
-L'espèce type est Archaeaspis hupei Repina, 1965[1].
-Fossiles
-Selon Paleobiology Database en 2023, cinq collections de fossiles sont référencées et sont du Cambrien de Californie aux États-Unis[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Archaeaspis ?Repina, 1965.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Archaeaspis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeaspis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèce type</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type est Archaeaspis hupei Repina, 1965.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Archaeaspis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Archaeaspis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, cinq collections de fossiles sont référencées et sont du Cambrien de Californie aux États-Unis.
 </t>
         </is>
       </c>
